--- a/docs/MemoryMap.xlsx
+++ b/docs/MemoryMap.xlsx
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <f>B8+F8-1</f>
+        <f t="shared" ref="C8:C14" si="0">B8+F8-1</f>
         <v>1023</v>
       </c>
       <c r="D8">
@@ -699,11 +699,11 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <f>C8+1</f>
+        <f t="shared" ref="B9:B14" si="1">C8+1</f>
         <v>1024</v>
       </c>
       <c r="C9">
-        <f>B9+F9-1</f>
+        <f t="shared" si="0"/>
         <v>2047</v>
       </c>
       <c r="D9" t="s">
@@ -713,7 +713,7 @@
         <v>21</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F14" si="0">POWER(2,$J$3)</f>
+        <f t="shared" ref="F9:F14" si="2">POWER(2,$J$3)</f>
         <v>1024</v>
       </c>
     </row>
@@ -722,11 +722,11 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <f>C9+1</f>
+        <f t="shared" si="1"/>
         <v>2048</v>
       </c>
       <c r="C10">
-        <f>B10+F10-1</f>
+        <f t="shared" si="0"/>
         <v>3071</v>
       </c>
       <c r="D10" t="s">
@@ -736,7 +736,7 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1024</v>
       </c>
     </row>
@@ -745,11 +745,11 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <f>C10+1</f>
+        <f t="shared" si="1"/>
         <v>3072</v>
       </c>
       <c r="C11">
-        <f>B11+F11-1</f>
+        <f t="shared" si="0"/>
         <v>4095</v>
       </c>
       <c r="D11" t="s">
@@ -759,7 +759,7 @@
         <v>30</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1024</v>
       </c>
     </row>
@@ -768,11 +768,11 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <f>C11+1</f>
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
       <c r="C12">
-        <f>B12+F12-1</f>
+        <f t="shared" si="0"/>
         <v>5119</v>
       </c>
       <c r="D12" t="s">
@@ -782,7 +782,7 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1024</v>
       </c>
     </row>
@@ -791,11 +791,11 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <f>C12+1</f>
+        <f t="shared" si="1"/>
         <v>5120</v>
       </c>
       <c r="C13">
-        <f>B13+F13-1</f>
+        <f t="shared" si="0"/>
         <v>6143</v>
       </c>
       <c r="D13" t="s">
@@ -805,7 +805,7 @@
         <v>34</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1024</v>
       </c>
     </row>
@@ -814,11 +814,11 @@
         <v>26</v>
       </c>
       <c r="B14" s="2">
-        <f>C13+1</f>
+        <f t="shared" si="1"/>
         <v>6144</v>
       </c>
       <c r="C14" s="2">
-        <f>B14+F14-1</f>
+        <f t="shared" si="0"/>
         <v>7167</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -828,7 +828,7 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1024</v>
       </c>
     </row>
